--- a/workfile/锐安项目文档/bi计划文档.xlsx
+++ b/workfile/锐安项目文档/bi计划文档.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8572D050-A170-437D-94D2-017264600FED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="任务方案完成确认情况" sheetId="1" r:id="rId1"/>
@@ -16,7 +15,7 @@
     <sheet name="问题清单" sheetId="6" r:id="rId6"/>
     <sheet name="事故清单" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="88">
   <si>
     <t>任务编号</t>
   </si>
@@ -316,10 +315,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>罗佳云</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>资产负债表sap取数取数源确定</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -337,13 +332,45 @@
   </si>
   <si>
     <t>现金流量表sap取数取数源确定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案计划确认时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面计划确认时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高祥云</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程项目分析|售后400分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经营指标分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>etl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗加云</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -437,7 +464,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -459,6 +486,16 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -739,27 +776,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="25.875" customWidth="1"/>
-    <col min="3" max="3" width="32.375" customWidth="1"/>
+    <col min="3" max="3" width="47.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.75" customWidth="1"/>
     <col min="5" max="5" width="16.25" customWidth="1"/>
     <col min="6" max="7" width="16.875" customWidth="1"/>
     <col min="8" max="9" width="13.75" customWidth="1"/>
-    <col min="10" max="10" width="11.75" customWidth="1"/>
-    <col min="11" max="11" width="11.5" customWidth="1"/>
-    <col min="12" max="12" width="19.75" customWidth="1"/>
+    <col min="10" max="10" width="14.75" customWidth="1"/>
+    <col min="11" max="11" width="11.75" customWidth="1"/>
+    <col min="12" max="12" width="11.5" customWidth="1"/>
+    <col min="13" max="13" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -788,16 +826,19 @@
         <v>13</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -823,13 +864,16 @@
         <v>43621</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+      <c r="J2" s="10">
+        <v>43619</v>
+      </c>
       <c r="K2" s="6"/>
-      <c r="L2" t="s">
+      <c r="L2" s="6"/>
+      <c r="M2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -855,13 +899,16 @@
         <v>43626</v>
       </c>
       <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+      <c r="J3" s="10">
+        <v>43626</v>
+      </c>
       <c r="K3" s="6"/>
-      <c r="L3" t="s">
+      <c r="L3" s="6"/>
+      <c r="M3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2.1</v>
       </c>
@@ -887,10 +934,13 @@
         <v>43626</v>
       </c>
       <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
+      <c r="J4" s="10">
+        <v>43626</v>
+      </c>
       <c r="K4" s="6"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2.2000000000000002</v>
       </c>
@@ -916,10 +966,13 @@
         <v>43626</v>
       </c>
       <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
+      <c r="J5" s="10">
+        <v>43626</v>
+      </c>
       <c r="K5" s="6"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2.2999999999999998</v>
       </c>
@@ -945,10 +998,13 @@
         <v>43626</v>
       </c>
       <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="J6" s="10">
+        <v>43626</v>
+      </c>
       <c r="K6" s="6"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2.4</v>
       </c>
@@ -974,10 +1030,13 @@
         <v>43626</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
+      <c r="J7" s="10">
+        <v>43626</v>
+      </c>
       <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3</v>
       </c>
@@ -997,10 +1056,16 @@
         <v>59</v>
       </c>
       <c r="G8" s="5">
-        <v>43633</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+        <v>43629</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="10">
+        <v>43629</v>
+      </c>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4</v>
       </c>
@@ -1020,10 +1085,16 @@
         <v>59</v>
       </c>
       <c r="G9" s="5">
-        <v>43640</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+        <v>43636</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="10">
+        <v>43636</v>
+      </c>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5</v>
       </c>
@@ -1043,10 +1114,16 @@
         <v>59</v>
       </c>
       <c r="G10" s="5">
-        <v>43647</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+        <v>43673</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="10">
+        <v>43643</v>
+      </c>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6</v>
       </c>
@@ -1066,10 +1143,16 @@
         <v>59</v>
       </c>
       <c r="G11" s="5">
-        <v>43654</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+        <v>43650</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="10">
+        <v>43650</v>
+      </c>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>7</v>
       </c>
@@ -1077,7 +1160,7 @@
         <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>58</v>
@@ -1089,10 +1172,16 @@
         <v>59</v>
       </c>
       <c r="G12" s="5">
-        <v>43661</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+        <v>43657</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="10">
+        <v>43657</v>
+      </c>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>8</v>
       </c>
@@ -1112,10 +1201,16 @@
         <v>59</v>
       </c>
       <c r="G13" s="5">
-        <v>43668</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+        <v>43664</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="10">
+        <v>43664</v>
+      </c>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>9</v>
       </c>
@@ -1135,10 +1230,16 @@
         <v>59</v>
       </c>
       <c r="G14" s="5">
-        <v>43675</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+        <v>43671</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="10">
+        <v>43671</v>
+      </c>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>10</v>
       </c>
@@ -1158,10 +1259,16 @@
         <v>59</v>
       </c>
       <c r="G15" s="5">
-        <v>43682</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+        <v>43678</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="J15" s="10">
+        <v>43678</v>
+      </c>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>11</v>
       </c>
@@ -1189,11 +1296,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD01404-B04E-48B3-B685-D3D430367FA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A16"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1417,7 +1524,7 @@
         <v>59</v>
       </c>
       <c r="G8" s="5">
-        <v>43633</v>
+        <v>43629</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1440,7 +1547,7 @@
         <v>59</v>
       </c>
       <c r="G9" s="5">
-        <v>43640</v>
+        <v>43636</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1463,7 +1570,7 @@
         <v>59</v>
       </c>
       <c r="G10" s="5">
-        <v>43647</v>
+        <v>43673</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1486,7 +1593,7 @@
         <v>59</v>
       </c>
       <c r="G11" s="5">
-        <v>43654</v>
+        <v>43650</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1509,7 +1616,7 @@
         <v>59</v>
       </c>
       <c r="G12" s="5">
-        <v>43661</v>
+        <v>43657</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1532,7 +1639,7 @@
         <v>59</v>
       </c>
       <c r="G13" s="5">
-        <v>43668</v>
+        <v>43664</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1555,7 +1662,7 @@
         <v>59</v>
       </c>
       <c r="G14" s="5">
-        <v>43675</v>
+        <v>43671</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1578,7 +1685,7 @@
         <v>59</v>
       </c>
       <c r="G15" s="5">
-        <v>43682</v>
+        <v>43678</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1608,11 +1715,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2CB8660-6ED9-4F7F-B463-8694170550D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:K7"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2065,22 +2172,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D52769C8-083E-4569-9183-EEAA18EFEDE1}">
-  <dimension ref="A1:L16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:K2"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="10" width="17.75" customWidth="1"/>
-    <col min="11" max="11" width="9.75" customWidth="1"/>
-    <col min="12" max="12" width="15.375" customWidth="1"/>
+    <col min="6" max="11" width="17.75" customWidth="1"/>
+    <col min="12" max="12" width="9.75" customWidth="1"/>
+    <col min="13" max="13" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2109,16 +2216,19 @@
         <v>23</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2144,13 +2254,16 @@
         <v>43626</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+      <c r="J2" s="10">
+        <v>43623</v>
+      </c>
       <c r="K2" s="6"/>
-      <c r="L2" t="s">
+      <c r="L2" s="6"/>
+      <c r="M2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2173,8 +2286,14 @@
         <v>43629</v>
       </c>
       <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I3" s="6"/>
+      <c r="J3" s="10">
+        <v>43629</v>
+      </c>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2.1</v>
       </c>
@@ -2197,8 +2316,14 @@
         <v>43629</v>
       </c>
       <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I4" s="6"/>
+      <c r="J4" s="10">
+        <v>43629</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2.2000000000000002</v>
       </c>
@@ -2221,8 +2346,14 @@
         <v>43629</v>
       </c>
       <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I5" s="6"/>
+      <c r="J5" s="10">
+        <v>43629</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2.2999999999999998</v>
       </c>
@@ -2245,8 +2376,14 @@
         <v>43629</v>
       </c>
       <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I6" s="6"/>
+      <c r="J6" s="10">
+        <v>43629</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2.4</v>
       </c>
@@ -2269,8 +2406,14 @@
         <v>43629</v>
       </c>
       <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I7" s="6"/>
+      <c r="J7" s="10">
+        <v>43629</v>
+      </c>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3</v>
       </c>
@@ -2292,8 +2435,14 @@
       <c r="G8" s="5">
         <v>43636</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I8" s="6"/>
+      <c r="J8" s="10">
+        <v>43636</v>
+      </c>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4</v>
       </c>
@@ -2315,8 +2464,14 @@
       <c r="G9" s="5">
         <v>43643</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I9" s="6"/>
+      <c r="J9" s="10">
+        <v>43643</v>
+      </c>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5</v>
       </c>
@@ -2338,8 +2493,14 @@
       <c r="G10" s="5">
         <v>43650</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I10" s="6"/>
+      <c r="J10" s="10">
+        <v>43650</v>
+      </c>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6</v>
       </c>
@@ -2361,8 +2522,14 @@
       <c r="G11" s="5">
         <v>43657</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I11" s="6"/>
+      <c r="J11" s="10">
+        <v>43657</v>
+      </c>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>7</v>
       </c>
@@ -2384,8 +2551,14 @@
       <c r="G12" s="5">
         <v>43664</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I12" s="6"/>
+      <c r="J12" s="10">
+        <v>43664</v>
+      </c>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>8</v>
       </c>
@@ -2407,8 +2580,14 @@
       <c r="G13" s="5">
         <v>43671</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I13" s="6"/>
+      <c r="J13" s="10">
+        <v>43671</v>
+      </c>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>9</v>
       </c>
@@ -2430,8 +2609,14 @@
       <c r="G14" s="5">
         <v>43678</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I14" s="6"/>
+      <c r="J14" s="10">
+        <v>43678</v>
+      </c>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>10</v>
       </c>
@@ -2453,8 +2638,14 @@
       <c r="G15" s="5">
         <v>43685</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I15" s="6"/>
+      <c r="J15" s="10">
+        <v>43685</v>
+      </c>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>11</v>
       </c>
@@ -2481,15 +2672,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE13C8DF-1D2A-4922-B6D8-367D264FC892}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="14.25" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="8" width="17.625" customWidth="1"/>
     <col min="9" max="11" width="15.625" customWidth="1"/>
@@ -2559,6 +2751,15 @@
       <c r="H2" s="5">
         <v>43626</v>
       </c>
+      <c r="I2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2" s="5">
+        <v>43627</v>
+      </c>
       <c r="L2" t="s">
         <v>68</v>
       </c>
@@ -2894,11 +3095,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B0DB85-0382-4A6A-90ED-20E6E3F6A804}">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2931,7 +3132,7 @@
         <v>74</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>9</v>
@@ -2945,18 +3146,18 @@
         <v>72</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>58</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -2967,18 +3168,18 @@
         <v>72</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>58</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -2989,19 +3190,39 @@
         <v>72</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>58</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7" t="s">
-        <v>78</v>
-      </c>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
+        <v>8</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3010,7 +3231,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A2CFDE0-749D-4633-BA87-DFA764B1D1F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/workfile/锐安项目文档/bi计划文档.xlsx
+++ b/workfile/锐安项目文档/bi计划文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="751"/>
   </bookViews>
   <sheets>
     <sheet name="任务方案完成确认情况" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="93">
   <si>
     <t>任务编号</t>
   </si>
@@ -364,6 +364,26 @@
   </si>
   <si>
     <t>罗加云</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与后置任务相重，延后</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗加云</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三表由财务确定优先级，故先处理损益，并与之调换</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图联动数据问题确认</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -464,7 +484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -496,6 +516,19 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -779,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1004,66 +1037,66 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="17">
         <v>2.4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="5">
-        <v>43626</v>
-      </c>
-      <c r="H7" s="5">
-        <v>43626</v>
-      </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="10">
-        <v>43626</v>
-      </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="F7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="18">
+        <v>43626</v>
+      </c>
+      <c r="H7" s="18">
+        <v>43626</v>
+      </c>
+      <c r="J7" s="18">
+        <v>43626</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
         <v>3</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="5">
+      <c r="F8" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="10">
         <v>43629</v>
       </c>
-      <c r="I8" s="6"/>
       <c r="J8" s="10">
         <v>43629</v>
       </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
+      <c r="M8" s="6" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -1079,13 +1112,16 @@
         <v>58</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="G9" s="5">
         <v>43636</v>
+      </c>
+      <c r="H9" s="5">
+        <v>43629</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="10">
@@ -1299,8 +1335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1477,32 +1513,32 @@
       </c>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="17">
         <v>2.4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="5">
-        <v>43626</v>
-      </c>
-      <c r="H7" s="5">
-        <v>43626</v>
-      </c>
-      <c r="I7" s="5"/>
+      <c r="F7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="18">
+        <v>43626</v>
+      </c>
+      <c r="H7" s="18">
+        <v>43626</v>
+      </c>
+      <c r="I7" s="18"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -1527,26 +1563,26 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="9" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="17">
         <v>4</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="D9" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="5">
+      <c r="F9" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="18">
         <v>43636</v>
       </c>
     </row>
@@ -1719,7 +1755,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1929,35 +1965,32 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="17">
         <v>2.4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="5">
-        <v>43626</v>
-      </c>
-      <c r="H7" s="5">
-        <v>43626</v>
-      </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" t="s">
+      <c r="F7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="18">
+        <v>43626</v>
+      </c>
+      <c r="H7" s="18">
+        <v>43626</v>
+      </c>
+      <c r="L7" s="17" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1984,26 +2017,26 @@
         <v>43633</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="9" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="17">
         <v>4</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="D9" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="5">
+      <c r="F9" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="18">
         <v>43640</v>
       </c>
     </row>
@@ -2175,8 +2208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2383,35 +2416,38 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
         <v>2.4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" s="5">
+      <c r="F7" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="15">
         <v>43629</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="10">
+      <c r="H7" s="15"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="15">
         <v>43629</v>
       </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="7" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -2675,8 +2711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2860,29 +2896,29 @@
       </c>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="17">
         <v>2.4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" s="5">
+      <c r="F7" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="18">
         <v>43629</v>
       </c>
-      <c r="H7" s="5"/>
+      <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -3096,10 +3132,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3224,6 +3260,11 @@
       <c r="G5" s="7"/>
       <c r="H5" s="12"/>
     </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3232,13 +3273,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:O1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -3283,6 +3327,11 @@
       </c>
       <c r="O1" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
